--- a/passive_stimulation/surround_suppression/surround_suppression_papers.xlsx
+++ b/passive_stimulation/surround_suppression/surround_suppression_papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberto/Documents/GitHub/openscope_psycode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\openscope_psycode\passive_stimulation\surround_suppression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0510F6-52CC-DF45-B30E-311915F30CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A4B85B-5E8D-416B-8D2E-CCDFB1DBA289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="5420" windowWidth="28040" windowHeight="17440" xr2:uid="{3C272EC0-5FAF-F846-A5E3-E71551BD0578}"/>
+    <workbookView xWindow="31005" yWindow="1365" windowWidth="25155" windowHeight="11295" xr2:uid="{3C272EC0-5FAF-F846-A5E3-E71551BD0578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>title</t>
   </si>
@@ -171,13 +171,31 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s41586-020-2319-4#Sec2</t>
+  </si>
+  <si>
+    <t>5, 10, 20, 30, 40, and 50</t>
+  </si>
+  <si>
+    <t>0, 90</t>
+  </si>
+  <si>
+    <t>0.04, 0.16 cycles/degrees</t>
+  </si>
+  <si>
+    <t>A Hallucinogenic Serotonin-2A Receptor Agonist Reduces Visual Response Gain and Alters Temporal Dynamics in Mouse V1</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/cell-reports/fulltext/S2211-1247(19)30290-6</t>
+  </si>
+  <si>
+    <t>55?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +242,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -252,25 +283,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,284 +647,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA03D22-F109-4842-A681-8F10BB796A32}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="122.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="41.83203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="68.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="122.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="41.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2021</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2020</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>2013</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>2018</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2014</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>2020</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="46.5">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +970,7 @@
     <hyperlink ref="A4" r:id="rId1" display="https://doi.org/10.1016/j.cub.2013.04.012" xr:uid="{2B80529D-3174-644A-9E67-044621268327}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
